--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958248.248607117</v>
+        <v>2958248.248607118</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177615</v>
+        <v>3940022.790763569</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177615</v>
+        <v>3940022.790763569</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.63502054</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>392.6911708778912</v>
       </c>
       <c r="U3" t="n">
-        <v>398.469914519595</v>
+        <v>400.0036144771679</v>
       </c>
       <c r="V3" t="n">
         <v>414.5106671915202</v>
@@ -904,10 +904,10 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C5" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500177</v>
       </c>
       <c r="D5" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E5" t="n">
         <v>404.3632896068686</v>
@@ -983,7 +983,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>359.5662124879463</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
         <v>347.9376868977026</v>
@@ -1037,7 +1037,7 @@
         <v>392.6911708778912</v>
       </c>
       <c r="U6" t="n">
-        <v>400.0036144771679</v>
+        <v>398.469914519595</v>
       </c>
       <c r="V6" t="n">
         <v>414.5106671915202</v>
@@ -1141,7 +1141,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C8" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D8" t="n">
         <v>410.3391557398498</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X9" t="n">
         <v>419.8627394453875</v>
@@ -1378,7 +1378,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
         <v>410.3391557398498</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.56516074743381</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741190048</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
       </c>
       <c r="V14" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W14" t="n">
         <v>638.3734759809475</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="21">
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="P22" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4956611598672</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.39810218700129</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.999312955469</v>
+        <v>481.9993129554254</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428884</v>
+        <v>449.4745782428448</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557397443</v>
+        <v>410.3391557397006</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067631</v>
+        <v>404.3632896067195</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287079064</v>
+        <v>404.8896287078627</v>
       </c>
       <c r="G29" t="n">
-        <v>396.495661161239</v>
+        <v>397.8840054526962</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406129697</v>
+        <v>347.859040612926</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.008821068549</v>
+        <v>361.0088210685054</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118755</v>
+        <v>560.9649184118318</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017715</v>
+        <v>648.7514272017279</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241667184</v>
+        <v>629.8510241666747</v>
       </c>
       <c r="W29" t="n">
-        <v>638.373475980842</v>
+        <v>636.9851316899108</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605622</v>
+        <v>592.2818334605186</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326827009</v>
+        <v>511.3174326826572</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151021013</v>
+        <v>406.6592151015241</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T35" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741190048</v>
       </c>
       <c r="U35" t="n">
         <v>648.751427201877</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.3568653036801</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3802,7 +3802,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U41" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
         <v>629.8510241668239</v>
@@ -3845,7 +3845,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I42" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3159.388586083262</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3641.567785596765</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4206.610849469437</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O2" t="n">
-        <v>5116.765732410181</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>6135.954275048307</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4448,19 +4448,19 @@
         <v>4761.01548219428</v>
       </c>
       <c r="U3" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V3" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W3" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X3" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y3" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="4">
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
         <v>1711.662994324041</v>
@@ -4570,55 +4570,55 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043492</v>
       </c>
       <c r="M5" t="n">
-        <v>3418.242061939566</v>
+        <v>3565.979488556995</v>
       </c>
       <c r="N5" t="n">
-        <v>3983.285125812238</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O5" t="n">
-        <v>4893.440008752982</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C6" t="n">
         <v>1922.364647927298</v>
@@ -4685,19 +4685,19 @@
         <v>4761.01548219428</v>
       </c>
       <c r="U6" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V6" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W6" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X6" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y6" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="7">
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M7" t="n">
-        <v>326.8726278290461</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N7" t="n">
-        <v>326.8726278290461</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C8" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D8" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E8" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4810,52 +4810,52 @@
         <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1765.421978263786</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L8" t="n">
-        <v>2683.01470158037</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M8" t="n">
-        <v>3165.193901093872</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N8" t="n">
-        <v>3730.236964966544</v>
+        <v>4013.941642094117</v>
       </c>
       <c r="O8" t="n">
-        <v>4640.391847907288</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="9">
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4928,13 +4928,13 @@
         <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y9" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="10">
@@ -4968,22 +4968,22 @@
         <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.013012360075</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M11" t="n">
-        <v>2739.192211873577</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N11" t="n">
-        <v>3304.235275746249</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O11" t="n">
-        <v>5048.61527574625</v>
+        <v>4715.980144947059</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.179490197778</v>
+        <v>6413.719626391855</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5208,40 +5208,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.1066270176099</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5284,40 +5284,40 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1055.002360625126</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L14" t="n">
-        <v>2963.70989871419</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M14" t="n">
-        <v>3445.889098227693</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N14" t="n">
-        <v>4010.932162100365</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
         <v>4826.598134791557</v>
@@ -5445,31 +5445,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5527,46 +5527,46 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5682,40 +5682,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5758,52 +5758,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M20" t="n">
-        <v>3864.448844008177</v>
+        <v>3950.48856448151</v>
       </c>
       <c r="N20" t="n">
-        <v>4429.491907880849</v>
+        <v>4515.531628354182</v>
       </c>
       <c r="O20" t="n">
-        <v>5339.646790821593</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P20" t="n">
-        <v>6175.514118919006</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5919,7 +5919,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
@@ -5931,7 +5931,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="O22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
         <v>140.96</v>
@@ -5998,28 +5998,28 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2966.719378707943</v>
+        <v>3083.800289043492</v>
       </c>
       <c r="M23" t="n">
-        <v>3448.898578221445</v>
+        <v>3565.979488556995</v>
       </c>
       <c r="N23" t="n">
-        <v>4013.941642094117</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
         <v>6684.746993155883</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6156,40 +6156,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W25" t="n">
         <v>140.96</v>
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6235,49 +6235,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>2332.601309399844</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M26" t="n">
-        <v>3864.448844008177</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6393,37 +6393,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T28" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546981</v>
+        <v>2580.161715517929</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049114</v>
+        <v>2126.146990020106</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352402</v>
+        <v>1711.662994323439</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859072844</v>
+        <v>1303.215227043924</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361355644</v>
+        <v>894.2358041066892</v>
       </c>
       <c r="G29" t="n">
-        <v>492.332768295929</v>
+        <v>492.3327682958849</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6469,52 +6469,52 @@
         <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>974.1471760311915</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1713.790319599031</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L29" t="n">
-        <v>2631.383042915614</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726622745</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183284</v>
+        <v>6683.344625183329</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464217</v>
+        <v>6116.713394464307</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543236</v>
+        <v>5461.40892254337</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819278</v>
+        <v>4825.195766819456</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909336</v>
+        <v>4181.776441880153</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666344</v>
+        <v>3583.511963637205</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431293</v>
+        <v>3067.029708402197</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150262</v>
+        <v>558.8475295150694</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213288</v>
+        <v>1250.415257213226</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.27078437463</v>
+        <v>2197.270784374464</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117489</v>
+        <v>3071.633876117323</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215728</v>
+        <v>4014.060204215458</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.31320618257</v>
+        <v>4993.313206182196</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369162</v>
+        <v>5699.926775368684</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250446</v>
+        <v>5925.707874249863</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373639</v>
+        <v>5569.989306373056</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,37 +6630,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V31" t="n">
         <v>140.96</v>
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6709,49 +6709,49 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>1830.673957362034</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>2748.266680678617</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>4280.114215286949</v>
+        <v>2808.54850940269</v>
       </c>
       <c r="N32" t="n">
-        <v>4845.157279159621</v>
+        <v>3373.591573275362</v>
       </c>
       <c r="O32" t="n">
-        <v>5755.312162100365</v>
+        <v>4283.746456216106</v>
       </c>
       <c r="P32" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6867,37 +6867,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6943,34 +6943,34 @@
         <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K35" t="n">
-        <v>2018.47013910948</v>
+        <v>2475.128344611655</v>
       </c>
       <c r="L35" t="n">
-        <v>2936.062862426063</v>
+        <v>3392.721067928238</v>
       </c>
       <c r="M35" t="n">
-        <v>3418.242061939566</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N35" t="n">
-        <v>3983.285125812238</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O35" t="n">
-        <v>4893.440008752982</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S35" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T35" t="n">
         <v>6118.11576243671</v>
@@ -7046,7 +7046,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
@@ -7104,37 +7104,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
         <v>140.96</v>
@@ -7177,55 +7177,55 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>821.2992300042777</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>2270.648739919985</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>3188.241463236568</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M38" t="n">
-        <v>3670.420662750071</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N38" t="n">
-        <v>4235.463726622743</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O38" t="n">
-        <v>5145.618609563487</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P38" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7341,34 +7341,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R40" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S40" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U40" t="n">
         <v>140.96</v>
@@ -7393,19 +7393,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7414,55 +7414,55 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3864.448844008177</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N41" t="n">
-        <v>4429.491907880849</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
-        <v>5755.312162100365</v>
+        <v>4893.440008752984</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="42">
@@ -7472,25 +7472,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I42" t="n">
         <v>140.96</v>
@@ -7523,25 +7523,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="43">
@@ -7578,31 +7578,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
         <v>140.96</v>
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7651,55 +7651,55 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1765.421978263786</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L44" t="n">
-        <v>2683.01470158037</v>
+        <v>2748.266680678619</v>
       </c>
       <c r="M44" t="n">
-        <v>3445.889098227693</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N44" t="n">
-        <v>4010.932162100365</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="45">
@@ -7815,37 +7815,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7990,22 +7990,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>644.996393626448</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>459.8234496459327</v>
       </c>
       <c r="R2" t="n">
         <v>176.4768357656695</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M5" t="n">
-        <v>609.5571242689076</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>721.3482088181374</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8473,16 +8473,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>223.7596813420475</v>
       </c>
       <c r="P8" t="n">
-        <v>392.2657817102981</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,13 +8710,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>713.8352387415302</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>179.2523876827529</v>
       </c>
       <c r="R11" t="n">
         <v>176.4768357656695</v>
@@ -8932,22 +8932,22 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>383.4716344542459</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>637.4834235498438</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O14" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>29.34358558167037</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9406,31 +9406,31 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>214.890922265088</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>419.8640113926992</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,19 +9646,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>603.2839282494474</v>
       </c>
       <c r="O23" t="n">
-        <v>839.6117546116195</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,28 +9883,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>301.7997308240087</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>763.2599394199342</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1515460156963</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>223.7596813420475</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>496.2158265843866</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1060.271045550332</v>
+        <v>70.05686619102255</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>176.4768357656695</v>
@@ -10591,16 +10591,16 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>685.9089394605951</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>291.2427374567744</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>147.4078661503587</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>459.8234496459327</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>176.4768357656695</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>419.864011392699</v>
+        <v>685.9089394605965</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>419.8640113927011</v>
       </c>
       <c r="M44" t="n">
-        <v>283.5305021553739</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23454,7 +23454,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
         <v>168.0209277307011</v>
@@ -23469,7 +23469,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5762131353567</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S13" t="n">
         <v>316.45975839138</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P16" t="n">
-        <v>203.5934038668184</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q16" t="n">
         <v>505.228266425598</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P22" t="n">
-        <v>343.0969549025573</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q22" t="n">
         <v>505.228266425598</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R25" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S25" t="n">
         <v>316.45975839138</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3883442915008</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.388344291036788</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699956849716</v>
+        <v>1.533699957426848</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P34" t="n">
-        <v>203.5934038668184</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q34" t="n">
         <v>505.228266425598</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
         <v>107.6476277959926</v>
@@ -25602,7 +25602,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R40" t="n">
-        <v>474.7845085791105</v>
+        <v>593.7432716957892</v>
       </c>
       <c r="S40" t="n">
         <v>316.45975839138</v>
@@ -25611,7 +25611,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>33.55489271692969</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636737</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971102</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.89833877989</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784878</v>
+        <v>6197645.178066946</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769177</v>
+        <v>7353889.199056747</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959866</v>
+        <v>8510133.220046548</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150555</v>
+        <v>9666377.241036348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341243</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531925</v>
+        <v>11978865.28301611</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722613</v>
+        <v>13135109.30400591</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913302</v>
+        <v>14291353.32499572</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103992</v>
+        <v>15447597.34598554</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294683</v>
+        <v>16603841.36697536</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485374</v>
+        <v>17760085.38796518</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>913048.3542411306</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.3542411313</v>
       </c>
       <c r="D2" t="n">
         <v>913048.3542411317</v>
       </c>
       <c r="E2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="F2" t="n">
         <v>817831.1367976688</v>
-      </c>
-      <c r="F2" t="n">
-        <v>817831.1367976685</v>
       </c>
       <c r="G2" t="n">
         <v>817831.1367976689</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
+        <v>817831.136797669</v>
+      </c>
+      <c r="J2" t="n">
         <v>817831.1367976688</v>
       </c>
-      <c r="J2" t="n">
-        <v>817831.1367976686</v>
-      </c>
       <c r="K2" t="n">
-        <v>817831.136797776</v>
+        <v>817831.1367977849</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.1367976692</v>
+        <v>817831.1367976693</v>
       </c>
       <c r="M2" t="n">
         <v>817831.1367976689</v>
       </c>
       <c r="N2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.136797669</v>
       </c>
       <c r="O2" t="n">
         <v>817831.1367976688</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620224.0000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.8038216352</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715405</v>
+        <v>88773.85276715398</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722105</v>
+        <v>88471.49209722099</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="I4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259858527</v>
+        <v>13783.46259859174</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
     </row>
     <row r="5">
@@ -26530,40 +26530,40 @@
         <v>-1393333.449580504</v>
       </c>
       <c r="C6" t="n">
-        <v>651667.5014739775</v>
+        <v>651667.5014739773</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439106</v>
+        <v>651969.8621439107</v>
       </c>
       <c r="E6" t="n">
+        <v>665068.274199166</v>
+      </c>
+      <c r="F6" t="n">
         <v>665068.2741991658</v>
-      </c>
-      <c r="F6" t="n">
-        <v>665068.2741991655</v>
       </c>
       <c r="G6" t="n">
         <v>665068.2741991659</v>
       </c>
       <c r="H6" t="n">
-        <v>665068.2741991655</v>
+        <v>665068.2741991659</v>
       </c>
       <c r="I6" t="n">
-        <v>665068.2741991658</v>
+        <v>665068.274199166</v>
       </c>
       <c r="J6" t="n">
         <v>44844.27419916564</v>
       </c>
       <c r="K6" t="n">
-        <v>665068.2741991908</v>
+        <v>665068.2741991932</v>
       </c>
       <c r="L6" t="n">
-        <v>665068.2741991662</v>
+        <v>665068.2741991663</v>
       </c>
       <c r="M6" t="n">
         <v>665068.2741991659</v>
       </c>
       <c r="N6" t="n">
-        <v>665068.2741991658</v>
+        <v>665068.274199166</v>
       </c>
       <c r="O6" t="n">
         <v>665068.2741991658</v>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,7 +27144,7 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27644,7 +27644,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.533699957572878</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27696,10 +27696,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27748,10 +27748,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="D5" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27881,7 +27881,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.533699957572878</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27933,19 +27933,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>151.8271516309748</v>
       </c>
       <c r="M7" t="n">
-        <v>126.8708835936961</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>268.0582198167198</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28124,7 +28124,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28176,13 +28176,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,28 +29744,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>1.491571310907603e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34825,31 +34825,31 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1489.306826048078</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>461.4348583860824</v>
+        <v>921.2583080320151</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34992,10 +34992,10 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>151.1650359809836</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35062,28 +35062,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M5" t="n">
-        <v>1096.606820747193</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1640.69657542495</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
@@ -35229,19 +35229,19 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="M7" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35317,16 +35317,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>919.3483666068121</v>
+        <v>1143.10804794886</v>
       </c>
       <c r="P8" t="n">
-        <v>1236.576214131928</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35460,7 +35460,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
@@ -35472,13 +35472,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,16 +35536,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35554,13 +35554,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>1558.14567116316</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>640.6872460688352</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35776,22 +35776,22 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>846.9232965508642</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321605</v>
       </c>
       <c r="L14" t="n">
-        <v>1564.344760233261</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O14" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
@@ -36019,10 +36019,10 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
-        <v>487.0496964782857</v>
+        <v>516.3932820599561</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36034,7 +36034,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36250,31 +36250,31 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>919.3483666068121</v>
+        <v>1134.2392888719</v>
       </c>
       <c r="P20" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>881.2988697787815</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36490,19 +36490,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1174.034497817803</v>
       </c>
       <c r="O23" t="n">
-        <v>1758.960121218432</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36727,28 +36727,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>872.5503003923645</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1607.570371841564</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36961,19 +36961,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>841.6032081123146</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>794.5102509104032</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
@@ -36982,10 +36982,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717436</v>
+        <v>422.1086156717872</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603012742</v>
+        <v>698.5532603011687</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244053964</v>
+        <v>956.4197244052909</v>
       </c>
       <c r="M30" t="n">
         <v>883.1950421645042</v>
       </c>
       <c r="N30" t="n">
-        <v>951.945785957817</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464311538</v>
+        <v>989.1444464310483</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799864568</v>
+        <v>713.7510799863513</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417014</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37201,13 +37201,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1243.330113016547</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
-        <v>1547.320742028618</v>
+        <v>557.1065626693082</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
@@ -37216,10 +37216,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37435,16 +37435,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>1433.023225892756</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>778.2924339350601</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37453,13 +37453,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,22 +37669,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>610.859528246977</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>1386.68478632935</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37693,7 +37693,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37906,28 +37906,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1339.212377999511</v>
+        <v>1605.257306067409</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
@@ -38143,25 +38143,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834174</v>
+        <v>1346.725348076118</v>
       </c>
       <c r="M44" t="n">
-        <v>770.5801986336596</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
